--- a/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
+++ b/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\ETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamho\Dropbox\Energy Innovation\InputData_RevisionRequest\elec\ETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738849F8-3EF3-4804-8F67-3336470FA6D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16498F9A-6131-432D-AC0D-5CDD7C5D30D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
+    <workbookView xWindow="9240" yWindow="1190" windowWidth="28090" windowHeight="18220" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>ETS Electricity Technology Shareweights</t>
   </si>
@@ -100,13 +100,42 @@
     <t>https://jgcri.github.io/gcam-doc/choice.html</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">demand that could be met by deploying </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> capacity of each technology in each particular year.</t>
+    </r>
+  </si>
+  <si>
+    <t>electricity that used to be supplied by the retiring plant).  Therefore, even countries with flat</t>
+  </si>
+  <si>
     <t>This variable provides the shareweights used in the modified logit equation for electricity</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>technology selection.  For more on this, see the "Modified Logit" equation description at:</t>
-  </si>
-  <si>
-    <t>None</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -118,7 +147,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -128,77 +157,78 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> electricity</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">demand that could be met by deploying </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>new</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> capacity of each technology in each particular year.</t>
-    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"New" electricity demand can come from increased demand (for instance, due to electrification)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>or from retirements of existing power plants (so some new plant needs to be built to supply the</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>electricity demand have some "new" demand due to plant retirements.  Only a country with</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>electricity demand that is declining at a faster rate than power plant are retiring has no "new"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricity demand for purposes of this variable.  (In this unusual case, no new plants are being</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>built, so the shareweights chosen here do not matter.)</t>
-  </si>
-  <si>
-    <t>electricity that used to be supplied by the retiring plant).  Therefore, even countries with flat</t>
-  </si>
-  <si>
-    <t>electricity demand for purposes of this variable.  (In this unusual case, no new plants are being</t>
-  </si>
-  <si>
-    <t>We assign zero values to hydro, crude oil and fuel oil, as these plants to not have a pathway</t>
-  </si>
-  <si>
-    <t>to deployment in the US.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>We assign zero values to hydro, petroleum, crude oil and fuel oil, as these plants to not have a pathway to deployment in Korea.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>KPX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kpx.or.kr/www/selectBbsNttList.do?key=89&amp;bbsNo=125&amp;nttNo=22424&amp;searchCtgry=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=1&amp;integrDeptCode=</t>
+  </si>
+  <si>
+    <t>MOTIE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.motie.go.kr/motie/ne/presse/press2/bbs/bbsView.do?bbs_seq_n=163670&amp;bbs_cd_n=81&amp;currentPage=1&amp;search_key_n=title_v&amp;cate_n=&amp;dept_v=&amp;search_val_v=9%EC%B0%A8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>the 9th electricity supply master plan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Status of Power Plant Construction Project</t>
+  </si>
+  <si>
+    <t>Natural gas peaker was assigned zero value, as it does not exist in Korea.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -206,7 +236,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -214,7 +244,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -222,7 +252,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -231,8 +261,23 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -257,15 +302,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -281,7 +331,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -577,108 +627,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422D012-50FD-4D0C-A3BE-19778A6AC198}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" xr:uid="{2705635C-9EE8-4C02-9AF9-24B17956AB3A}"/>
+    <hyperlink ref="A14" r:id="rId1" xr:uid="{2705635C-9EE8-4C02-9AF9-24B17956AB3A}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{79D94B4A-8183-443D-A703-F2DF78F3772B}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{470ED678-A95A-40B4-8465-66B300454B07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -690,15 +771,15 @@
   <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -796,7 +877,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -894,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -992,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1090,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1188,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1286,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1384,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1482,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1580,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1678,203 +1759,203 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1972,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2070,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2168,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2266,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2365,6 +2446,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
+++ b/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamho\Dropbox\Energy Innovation\InputData_RevisionRequest\elec\ETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\elec\ETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16498F9A-6131-432D-AC0D-5CDD7C5D30D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EAC925-5273-45ED-AA71-A58FDD9B82A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="1190" windowWidth="28090" windowHeight="18220" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="ETS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -109,7 +109,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -119,7 +119,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -147,7 +147,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -157,7 +157,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -224,11 +224,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -236,7 +236,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -244,7 +244,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -252,7 +252,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -261,13 +261,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -275,7 +275,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -314,8 +314,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,7 +331,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -633,14 +633,14 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -648,105 +648,105 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2">
       <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2">
       <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
         <v>39</v>
       </c>
@@ -770,16 +770,16 @@
   </sheetPr>
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -877,7 +877,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1759,203 +1759,203 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
         <v>17</v>
       </c>

--- a/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
+++ b/InputData/elec/ETS/Electricity Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\elec\ETS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EAC925-5273-45ED-AA71-A58FDD9B82A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE07F2F9-66A5-4EEB-A50F-C7E8BBA4DF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10620" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -629,11 +629,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6422D012-50FD-4D0C-A3BE-19778A6AC198}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17:N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -770,13 +770,13 @@
   </sheetPr>
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:AF14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -1274,97 +1274,97 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1862,97 +1862,97 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="AF12">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -2058,97 +2058,97 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AD14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AF14">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:32">
